--- a/lab9,10/Стратегия тестирования.xlsx
+++ b/lab9,10/Стратегия тестирования.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Da Vadim\WebstormProjects\softeng\lab9,10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C85C5E52-D612-4554-B615-CEDD6AD24777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2766B7AB-3C29-45E2-B713-15BB3F90FCFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-план" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="125">
   <si>
-    <t>Тест-план по системному тестированию веб-приложения для доставки еды</t>
-  </si>
-  <si>
     <t>Цель доработки:</t>
   </si>
   <si>
@@ -407,6 +404,9 @@
   </si>
   <si>
     <t>9.8%</t>
+  </si>
+  <si>
+    <t>Тест-план по системному тестированию веб-приложения для доставки кондитерских изделий</t>
   </si>
 </sst>
 </file>
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,7 +905,7 @@
   <sheetData>
     <row r="2" spans="2:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="23" t="s">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -922,142 +922,142 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="5">
         <v>2</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
@@ -1066,7 +1066,7 @@
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1096,29 +1096,29 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" s="25"/>
     </row>
     <row r="2" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="20">
         <v>1</v>
@@ -1126,15 +1126,15 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="21">
         <v>44018</v>
@@ -1142,63 +1142,63 @@
     </row>
     <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -1206,29 +1206,29 @@
     </row>
     <row r="12" spans="2:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -1258,29 +1258,29 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="25"/>
     </row>
     <row r="2" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="20">
         <v>2</v>
@@ -1288,15 +1288,15 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9">
         <v>44018</v>
@@ -1304,105 +1304,105 @@
     </row>
     <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" s="5">
         <v>2</v>
@@ -1410,99 +1410,99 @@
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1533,43 +1533,43 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="25"/>
     </row>
     <row r="2" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9">
         <v>44018</v>
@@ -1577,175 +1577,175 @@
     </row>
     <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="2:7" ht="105" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1775,29 +1775,29 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="25"/>
     </row>
     <row r="2" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="20">
         <v>3</v>
@@ -1805,15 +1805,15 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="9">
         <v>44018</v>
@@ -1821,91 +1821,91 @@
     </row>
     <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G13" s="5">
         <v>3</v>
@@ -1937,29 +1937,29 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="25"/>
     </row>
     <row r="2" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="20">
         <v>4</v>
@@ -1967,15 +1967,15 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9">
         <v>44018</v>
@@ -1983,77 +1983,77 @@
     </row>
     <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G12" s="4">
         <v>4</v>
@@ -2061,43 +2061,43 @@
     </row>
     <row r="13" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" s="4"/>
     </row>
@@ -2128,19 +2128,19 @@
   <sheetData>
     <row r="1" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="3:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2148,16 +2148,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="3:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2165,16 +2165,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="3:7" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2182,16 +2182,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -2199,16 +2199,16 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2221,7 +2221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="D1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -2234,21 +2234,21 @@
   <sheetData>
     <row r="1" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D1" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" s="26"/>
     </row>
     <row r="2" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="14">
         <v>44018</v>
@@ -2256,15 +2256,15 @@
     </row>
     <row r="4" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="5">
         <v>41</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="5">
         <v>41</v>
@@ -2284,24 +2284,24 @@
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="5">
         <v>37</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="5">
         <v>4</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.25">
@@ -2309,7 +2309,7 @@
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D11" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="5">
         <v>4</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D12" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="15" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D15" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="5">
         <v>3</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="16" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D16" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -2357,12 +2357,12 @@
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="4:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
